--- a/test/reg.xlsx
+++ b/test/reg.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480CF50A-8682-4D10-A1F1-B2B9436FA87E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134EB21E-D99E-4095-BBDB-8A1673965D92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
   <si>
     <t>Block</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,6 +179,50 @@
   </si>
   <si>
     <t>Rand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clock register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timer register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID field</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clock division</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clock frequency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clock enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Counter value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timer enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timer start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -587,7 +631,7 @@
   <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -676,6 +720,9 @@
       <c r="G4" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="J4" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="K5" t="s">
@@ -696,6 +743,9 @@
       <c r="P5">
         <v>1</v>
       </c>
+      <c r="Q5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E6" s="5" t="s">
@@ -707,6 +757,9 @@
       <c r="G6" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="J6" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -728,6 +781,9 @@
       <c r="P7">
         <v>1</v>
       </c>
+      <c r="Q7" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="K8" s="2" t="s">
@@ -748,6 +804,9 @@
       <c r="P8">
         <v>1</v>
       </c>
+      <c r="Q8" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="K9" s="2" t="s">
@@ -759,14 +818,17 @@
       <c r="M9" t="s">
         <v>12</v>
       </c>
-      <c r="N9">
-        <v>1</v>
+      <c r="N9" t="s">
+        <v>50</v>
       </c>
       <c r="O9">
         <v>1</v>
       </c>
       <c r="P9">
         <v>1</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -794,6 +856,9 @@
       <c r="I11" s="5">
         <v>4</v>
       </c>
+      <c r="J11" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="K12" s="2" t="s">
@@ -814,6 +879,9 @@
       <c r="P12">
         <v>1</v>
       </c>
+      <c r="Q12" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="K13" s="2" t="s">
@@ -834,6 +902,9 @@
       <c r="P13">
         <v>1</v>
       </c>
+      <c r="Q13" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="K14" s="2" t="s">
@@ -853,6 +924,9 @@
       </c>
       <c r="P14">
         <v>1</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/test/reg.xlsx
+++ b/test/reg.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134EB21E-D99E-4095-BBDB-8A1673965D92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01071D10-931E-43B5-A104-DCA562DBE4C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,10 +150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0xF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -223,6 +219,10 @@
   </si>
   <si>
     <t>0x1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -631,7 +631,7 @@
   <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -650,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>2</v>
@@ -689,10 +689,10 @@
         <v>8</v>
       </c>
       <c r="O2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="Q2" s="8" t="s">
         <v>5</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="3" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="3">
         <v>32</v>
@@ -721,7 +721,7 @@
         <v>23</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -744,7 +744,7 @@
         <v>1</v>
       </c>
       <c r="Q5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -758,7 +758,7 @@
         <v>12</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L6" s="6"/>
     </row>
@@ -782,7 +782,7 @@
         <v>1</v>
       </c>
       <c r="Q7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -805,7 +805,7 @@
         <v>1</v>
       </c>
       <c r="Q8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -819,7 +819,7 @@
         <v>12</v>
       </c>
       <c r="N9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -828,12 +828,12 @@
         <v>1</v>
       </c>
       <c r="Q9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="3">
         <v>32</v>
@@ -857,7 +857,7 @@
         <v>4</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -871,7 +871,7 @@
         <v>12</v>
       </c>
       <c r="N12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -880,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="Q12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -903,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="Q13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -911,10 +911,10 @@
         <v>30</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="M14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N14" t="s">
         <v>14</v>
@@ -926,7 +926,7 @@
         <v>1</v>
       </c>
       <c r="Q14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/test/reg.xlsx
+++ b/test/reg.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01071D10-931E-43B5-A104-DCA562DBE4C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F51EF3E-4E06-4521-B9E7-47BB815D06EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
   <si>
     <t>Block</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,6 +223,10 @@
   </si>
   <si>
     <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volatile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -628,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q59"/>
+  <dimension ref="A1:R59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -641,11 +645,11 @@
     <col min="10" max="10" width="14.1640625" customWidth="1"/>
     <col min="13" max="13" width="10.9140625" customWidth="1"/>
     <col min="14" max="14" width="10.83203125" customWidth="1"/>
-    <col min="17" max="17" width="18.5" customWidth="1"/>
+    <col min="18" max="18" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -695,10 +699,13 @@
         <v>38</v>
       </c>
       <c r="Q2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
@@ -710,7 +717,7 @@
       </c>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E4" s="5" t="s">
         <v>21</v>
       </c>
@@ -724,7 +731,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="K5" t="s">
         <v>21</v>
       </c>
@@ -743,11 +750,14 @@
       <c r="P5">
         <v>1</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E6" s="5" t="s">
         <v>11</v>
       </c>
@@ -762,7 +772,7 @@
       </c>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="K7" t="s">
         <v>13</v>
       </c>
@@ -781,11 +791,14 @@
       <c r="P7">
         <v>1</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="K8" s="2" t="s">
         <v>16</v>
       </c>
@@ -804,11 +817,14 @@
       <c r="P8">
         <v>1</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="K9" s="2" t="s">
         <v>19</v>
       </c>
@@ -827,11 +843,14 @@
       <c r="P9">
         <v>1</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>36</v>
       </c>
@@ -843,7 +862,7 @@
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E11" s="5" t="s">
         <v>27</v>
       </c>
@@ -860,7 +879,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="K12" s="2" t="s">
         <v>28</v>
       </c>
@@ -879,11 +898,14 @@
       <c r="P12">
         <v>1</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="K13" s="2" t="s">
         <v>29</v>
       </c>
@@ -902,11 +924,14 @@
       <c r="P13">
         <v>1</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="K14" s="2" t="s">
         <v>30</v>
       </c>
@@ -925,15 +950,18 @@
       <c r="P14">
         <v>1</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
@@ -1085,6 +1113,18 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I2">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1096,7 +1136,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
+  <conditionalFormatting sqref="O2:P2">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1108,8 +1148,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:N2 Q2:XFD2 C2 E2:H2 A2">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="J2:N2 R2:XFD2 C2 E2:H2 A2">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1120,7 +1160,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:P2">
+  <conditionalFormatting sqref="Q2">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/test/reg.xlsx
+++ b/test/reg.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F51EF3E-4E06-4521-B9E7-47BB815D06EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6499F526-6B2B-4A7E-B893-A38D8E0088ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
   <si>
     <t>Block</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,6 +227,64 @@
   </si>
   <si>
     <t>Volatile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interrupt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00000200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT enbale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT3E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT2E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT1E</t>
+  </si>
+  <si>
+    <t>INT0E</t>
+  </si>
+  <si>
+    <t>INT3 enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT1 enable</t>
+  </si>
+  <si>
+    <t>INT0 enable</t>
+  </si>
+  <si>
+    <t>INT2 enable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -635,7 +693,7 @@
   <dimension ref="A1:R59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -957,75 +1015,184 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="11:12" x14ac:dyDescent="0.3">
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="11:12" x14ac:dyDescent="0.3">
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="11:12" x14ac:dyDescent="0.3">
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="11:12" x14ac:dyDescent="0.3">
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="11:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="3">
+        <v>32</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="5">
+        <v>4</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="11:18" x14ac:dyDescent="0.3">
+      <c r="K17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M17" t="s">
+        <v>12</v>
+      </c>
+      <c r="N17" t="s">
+        <v>49</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="11:18" x14ac:dyDescent="0.3">
+      <c r="K18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M18" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18" t="s">
+        <v>49</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="11:18" x14ac:dyDescent="0.3">
+      <c r="K19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N19" t="s">
+        <v>49</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="11:18" x14ac:dyDescent="0.3">
+      <c r="K20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M20" t="s">
+        <v>12</v>
+      </c>
+      <c r="N20" t="s">
+        <v>49</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="11:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="11:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="11:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="11:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="11:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="11:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="11:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="11:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="11:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="11:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="11:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>

--- a/test/reg.xlsx
+++ b/test/reg.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6499F526-6B2B-4A7E-B893-A38D8E0088ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F1AF1F-4E7D-4062-9795-F7D9961ADE5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4760" yWindow="470" windowWidth="20840" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -397,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -410,6 +410,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -690,20 +693,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R59"/>
+  <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="11.75" customWidth="1"/>
     <col min="8" max="8" width="9.25" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" customWidth="1"/>
+    <col min="10" max="10" width="22.83203125" customWidth="1"/>
+    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.58203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.9140625" customWidth="1"/>
     <col min="14" max="14" width="10.83203125" customWidth="1"/>
-    <col min="18" max="18" width="18.5" customWidth="1"/>
+    <col min="18" max="18" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -1148,134 +1153,109 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="11:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="11:18" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="11:18" x14ac:dyDescent="0.3">
+      <c r="R21" s="12"/>
+    </row>
+    <row r="22" spans="11:18" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="11:18" x14ac:dyDescent="0.3">
+      <c r="R22" s="12"/>
+    </row>
+    <row r="23" spans="11:18" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
-    </row>
-    <row r="24" spans="11:18" x14ac:dyDescent="0.3">
+      <c r="R23" s="12"/>
+    </row>
+    <row r="24" spans="11:18" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="11:18" x14ac:dyDescent="0.3">
+      <c r="R24" s="12"/>
+    </row>
+    <row r="25" spans="11:18" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
-    </row>
-    <row r="26" spans="11:18" x14ac:dyDescent="0.3">
+      <c r="R25" s="12"/>
+    </row>
+    <row r="26" spans="11:18" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
-    </row>
-    <row r="27" spans="11:18" x14ac:dyDescent="0.3">
+      <c r="R26" s="12"/>
+    </row>
+    <row r="27" spans="11:18" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
-    </row>
-    <row r="28" spans="11:18" x14ac:dyDescent="0.3">
+      <c r="R27" s="12"/>
+    </row>
+    <row r="28" spans="11:18" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
-    </row>
-    <row r="29" spans="11:18" x14ac:dyDescent="0.3">
+      <c r="R28" s="12"/>
+    </row>
+    <row r="29" spans="11:18" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
-    </row>
-    <row r="30" spans="11:18" x14ac:dyDescent="0.3">
+      <c r="R29" s="12"/>
+    </row>
+    <row r="30" spans="11:18" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
-    </row>
-    <row r="31" spans="11:18" x14ac:dyDescent="0.3">
+      <c r="R30" s="12"/>
+    </row>
+    <row r="31" spans="11:18" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
-    </row>
-    <row r="32" spans="11:18" x14ac:dyDescent="0.3">
+      <c r="R31" s="12"/>
+    </row>
+    <row r="32" spans="11:18" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
-    </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="R32" s="12"/>
+    </row>
+    <row r="33" spans="11:18" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="L33" s="2"/>
+      <c r="R33" s="12"/>
+    </row>
+    <row r="34" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K46" s="2"/>
-    </row>
-    <row r="47" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K47" s="2"/>
-    </row>
-    <row r="48" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K48" s="2"/>
-    </row>
-    <row r="49" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K49" s="2"/>
-    </row>
-    <row r="50" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K50" s="2"/>
-    </row>
-    <row r="51" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K51" s="2"/>
-    </row>
-    <row r="52" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K52" s="2"/>
-    </row>
-    <row r="53" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K53" s="2"/>
-    </row>
-    <row r="54" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K54" s="2"/>
-    </row>
-    <row r="55" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K55" s="2"/>
-    </row>
-    <row r="56" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K56" s="2"/>
-    </row>
-    <row r="57" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K57" s="2"/>
-    </row>
-    <row r="58" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K58" s="2"/>
-    </row>
-    <row r="59" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K59" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test/reg.xlsx
+++ b/test/reg.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F1AF1F-4E7D-4062-9795-F7D9961ADE5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B376F56D-BA88-445D-94E2-68F2529CB087}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4760" yWindow="470" windowWidth="20840" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3090" yWindow="3290" windowWidth="20840" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
   <si>
     <t>Block</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -285,6 +285,18 @@
   </si>
   <si>
     <t>INT2 enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ddd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -696,18 +708,18 @@
   <dimension ref="A1:R46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="11.75" customWidth="1"/>
-    <col min="8" max="8" width="9.25" customWidth="1"/>
-    <col min="10" max="10" width="22.83203125" customWidth="1"/>
-    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.58203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.9140625" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" customWidth="1"/>
+    <col min="9" max="9" width="22.83203125" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.58203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.9140625" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" customWidth="1"/>
     <col min="18" max="18" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -735,34 +747,34 @@
         <v>3</v>
       </c>
       <c r="H2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" s="8" t="s">
         <v>4</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>51</v>
       </c>
       <c r="R2" s="8" t="s">
         <v>5</v>
@@ -778,7 +790,7 @@
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="4"/>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E4" s="5" t="s">
@@ -790,31 +802,34 @@
       <c r="G4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="K5" t="s">
+      <c r="J5" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="L5" t="s">
+        <v>23</v>
+      </c>
       <c r="M5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" t="s">
         <v>25</v>
       </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
       <c r="O5">
         <v>1</v>
       </c>
       <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
         <v>0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>68</v>
       </c>
       <c r="R5" t="s">
         <v>42</v>
@@ -830,31 +845,31 @@
       <c r="G6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="6"/>
+      <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="K7" t="s">
+      <c r="J7" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="L7" t="s">
+        <v>12</v>
+      </c>
       <c r="M7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7" t="s">
         <v>14</v>
       </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
       <c r="O7">
         <v>1</v>
       </c>
       <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7" t="s">
@@ -862,25 +877,25 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J8" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="K8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="L8" t="s">
+        <v>12</v>
+      </c>
       <c r="M8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" t="s">
         <v>14</v>
       </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
       <c r="O8">
         <v>1</v>
       </c>
       <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8" t="s">
@@ -888,25 +903,25 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J9" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="K9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="L9" t="s">
+        <v>12</v>
+      </c>
       <c r="M9" t="s">
-        <v>12</v>
-      </c>
-      <c r="N9" t="s">
         <v>49</v>
       </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
       <c r="O9">
         <v>1</v>
       </c>
       <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9" t="s">
@@ -923,7 +938,7 @@
       <c r="C10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="4"/>
+      <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E11" s="5" t="s">
@@ -935,33 +950,33 @@
       <c r="G11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="5">
+      <c r="H11" s="5">
         <v>4</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="I11" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J12" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="K12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L12" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="L12" t="s">
+        <v>12</v>
+      </c>
       <c r="M12" t="s">
-        <v>12</v>
-      </c>
-      <c r="N12" t="s">
         <v>32</v>
       </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
       <c r="O12">
         <v>1</v>
       </c>
       <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12" t="s">
@@ -969,25 +984,25 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J13" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="K13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L13" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="L13" t="s">
+        <v>12</v>
+      </c>
       <c r="M13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N13" t="s">
         <v>14</v>
       </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
       <c r="O13">
         <v>1</v>
       </c>
       <c r="P13">
-        <v>1</v>
-      </c>
-      <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13" t="s">
@@ -995,25 +1010,25 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J14" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="K14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L14" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="L14" t="s">
+        <v>33</v>
+      </c>
       <c r="M14" t="s">
-        <v>33</v>
-      </c>
-      <c r="N14" t="s">
         <v>14</v>
       </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
       <c r="O14">
         <v>1</v>
       </c>
       <c r="P14">
-        <v>1</v>
-      </c>
-      <c r="Q14">
         <v>1</v>
       </c>
       <c r="R14" t="s">
@@ -1030,7 +1045,7 @@
       <c r="C15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="L15" s="4"/>
+      <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E16" s="5" t="s">
@@ -1042,224 +1057,230 @@
       <c r="G16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="5">
+      <c r="H16" s="5">
         <v>4</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="I16" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="11:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="10:18" x14ac:dyDescent="0.3">
+      <c r="J17" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="K17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="L17" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="L17" t="s">
+        <v>12</v>
+      </c>
       <c r="M17" t="s">
-        <v>12</v>
-      </c>
-      <c r="N17" t="s">
         <v>49</v>
       </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
       <c r="O17">
         <v>1</v>
       </c>
       <c r="P17">
-        <v>1</v>
-      </c>
-      <c r="Q17">
         <v>0</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>69</v>
       </c>
       <c r="R17" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="11:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="10:18" x14ac:dyDescent="0.3">
+      <c r="J18" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="K18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L18" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="L18" t="s">
+        <v>12</v>
+      </c>
       <c r="M18" t="s">
-        <v>12</v>
-      </c>
-      <c r="N18" t="s">
         <v>49</v>
       </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
       <c r="O18">
         <v>1</v>
       </c>
       <c r="P18">
-        <v>1</v>
-      </c>
-      <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="11:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="10:18" x14ac:dyDescent="0.3">
+      <c r="J19" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="K19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L19" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="L19" t="s">
+        <v>12</v>
+      </c>
       <c r="M19" t="s">
-        <v>12</v>
-      </c>
-      <c r="N19" t="s">
         <v>49</v>
       </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
       <c r="O19">
         <v>1</v>
       </c>
       <c r="P19">
-        <v>1</v>
-      </c>
-      <c r="Q19">
         <v>0</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>70</v>
       </c>
       <c r="R19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="11:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="10:18" x14ac:dyDescent="0.3">
+      <c r="J20" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="K20" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L20" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="L20" t="s">
+        <v>12</v>
+      </c>
       <c r="M20" t="s">
-        <v>12</v>
-      </c>
-      <c r="N20" t="s">
         <v>49</v>
       </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
       <c r="O20">
         <v>1</v>
       </c>
       <c r="P20">
-        <v>1</v>
-      </c>
-      <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="11:18" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="10:18" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
       <c r="R21" s="12"/>
     </row>
-    <row r="22" spans="11:18" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="10:18" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
       <c r="R22" s="12"/>
     </row>
-    <row r="23" spans="11:18" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="10:18" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
       <c r="R23" s="12"/>
     </row>
-    <row r="24" spans="11:18" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="10:18" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
       <c r="R24" s="12"/>
     </row>
-    <row r="25" spans="11:18" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="10:18" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
       <c r="R25" s="12"/>
     </row>
-    <row r="26" spans="11:18" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="10:18" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
       <c r="R26" s="12"/>
     </row>
-    <row r="27" spans="11:18" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="10:18" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
       <c r="R27" s="12"/>
     </row>
-    <row r="28" spans="11:18" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="10:18" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
       <c r="R28" s="12"/>
     </row>
-    <row r="29" spans="11:18" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="10:18" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
       <c r="R29" s="12"/>
     </row>
-    <row r="30" spans="11:18" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="10:18" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
       <c r="R30" s="12"/>
     </row>
-    <row r="31" spans="11:18" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="10:18" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
       <c r="R31" s="12"/>
     </row>
-    <row r="32" spans="11:18" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="10:18" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
       <c r="R32" s="12"/>
     </row>
-    <row r="33" spans="11:18" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="10:18" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
       <c r="R33" s="12"/>
     </row>
-    <row r="34" spans="11:18" x14ac:dyDescent="0.3">
-      <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="11:18" x14ac:dyDescent="0.3">
-      <c r="K35" s="2"/>
-    </row>
-    <row r="36" spans="11:18" x14ac:dyDescent="0.3">
-      <c r="K36" s="2"/>
-    </row>
-    <row r="37" spans="11:18" x14ac:dyDescent="0.3">
-      <c r="K37" s="2"/>
-    </row>
-    <row r="38" spans="11:18" x14ac:dyDescent="0.3">
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="11:18" x14ac:dyDescent="0.3">
-      <c r="K39" s="2"/>
-    </row>
-    <row r="40" spans="11:18" x14ac:dyDescent="0.3">
-      <c r="K40" s="2"/>
-    </row>
-    <row r="41" spans="11:18" x14ac:dyDescent="0.3">
-      <c r="K41" s="2"/>
-    </row>
-    <row r="42" spans="11:18" x14ac:dyDescent="0.3">
-      <c r="K42" s="2"/>
-    </row>
-    <row r="43" spans="11:18" x14ac:dyDescent="0.3">
-      <c r="K43" s="2"/>
-    </row>
-    <row r="44" spans="11:18" x14ac:dyDescent="0.3">
-      <c r="K44" s="2"/>
-    </row>
-    <row r="45" spans="11:18" x14ac:dyDescent="0.3">
-      <c r="K45" s="2"/>
-    </row>
-    <row r="46" spans="11:18" x14ac:dyDescent="0.3">
-      <c r="K46" s="2"/>
+    <row r="34" spans="10:18" x14ac:dyDescent="0.3">
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="10:18" x14ac:dyDescent="0.3">
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="10:18" x14ac:dyDescent="0.3">
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="10:18" x14ac:dyDescent="0.3">
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="10:18" x14ac:dyDescent="0.3">
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="10:18" x14ac:dyDescent="0.3">
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="10:18" x14ac:dyDescent="0.3">
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="10:18" x14ac:dyDescent="0.3">
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="10:18" x14ac:dyDescent="0.3">
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="10:18" x14ac:dyDescent="0.3">
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="10:18" x14ac:dyDescent="0.3">
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="10:18" x14ac:dyDescent="0.3">
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="10:18" x14ac:dyDescent="0.3">
+      <c r="J46" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="I2">
+  <conditionalFormatting sqref="H2">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -1283,7 +1304,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:P2">
+  <conditionalFormatting sqref="N2:O2">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1295,8 +1316,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:N2 R2:XFD2 C2 E2:H2 A2">
-    <cfRule type="colorScale" priority="8">
+  <conditionalFormatting sqref="P2">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1307,8 +1328,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="I2:M2 C2 E2:G2 Q2:XFD2 A2">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/test/reg.xlsx
+++ b/test/reg.xlsx
@@ -3,24 +3,32 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B376F56D-BA88-445D-94E2-68F2529CB087}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5754982E-C2E0-4251-B2F2-8783BF371856}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3090" yWindow="3290" windowWidth="20840" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="69">
   <si>
     <t>Block</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1:0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3:2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,10 +150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3:0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0xF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -222,10 +222,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Volatile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -288,15 +284,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>aaa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ddd</t>
+    <t>11:8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7:6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -707,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>2</v>
@@ -765,13 +765,13 @@
         <v>8</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q2" s="8" t="s">
         <v>4</v>
@@ -782,7 +782,7 @@
     </row>
     <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" s="3">
         <v>32</v>
@@ -794,30 +794,30 @@
     </row>
     <row r="4" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="J5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" t="s">
         <v>24</v>
-      </c>
-      <c r="L5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" t="s">
-        <v>25</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -828,11 +828,12 @@
       <c r="P5">
         <v>0</v>
       </c>
-      <c r="Q5" t="s">
-        <v>68</v>
+      <c r="Q5" t="str">
+        <f>"reg_inst."&amp;LOWER(J5)</f>
+        <v>reg_inst.id</v>
       </c>
       <c r="R5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -840,13 +841,13 @@
         <v>11</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K6" s="6"/>
     </row>
@@ -855,7 +856,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="L7" t="s">
         <v>12</v>
@@ -872,8 +873,12 @@
       <c r="P7">
         <v>0</v>
       </c>
+      <c r="Q7" t="str">
+        <f t="shared" ref="Q7:Q9" si="0">"reg_inst."&amp;LOWER(J7)</f>
+        <v>reg_inst.div</v>
+      </c>
       <c r="R7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -881,7 +886,7 @@
         <v>16</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L8" t="s">
         <v>12</v>
@@ -898,22 +903,26 @@
       <c r="P8">
         <v>0</v>
       </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="0"/>
+        <v>reg_inst.freq</v>
+      </c>
       <c r="R8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="J9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="L9" t="s">
         <v>12</v>
       </c>
       <c r="M9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -924,25 +933,29 @@
       <c r="P9">
         <v>0</v>
       </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="0"/>
+        <v>reg_inst.en</v>
+      </c>
       <c r="R9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B10" s="3">
         <v>32</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E11" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>9</v>
@@ -954,21 +967,21 @@
         <v>4</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="J12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="L12" t="s">
         <v>12</v>
       </c>
       <c r="M12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -979,16 +992,20 @@
       <c r="P12">
         <v>0</v>
       </c>
+      <c r="Q12" t="str">
+        <f t="shared" ref="Q12:Q14" si="1">"reg_inst."&amp;LOWER(J12)</f>
+        <v>reg_inst.counter</v>
+      </c>
       <c r="R12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="J13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L13" t="s">
         <v>12</v>
@@ -1005,19 +1022,23 @@
       <c r="P13">
         <v>0</v>
       </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="1"/>
+        <v>reg_inst.enable</v>
+      </c>
       <c r="R13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="J14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="L14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M14" t="s">
         <v>14</v>
@@ -1031,25 +1052,29 @@
       <c r="P14">
         <v>1</v>
       </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="1"/>
+        <v>reg_inst.start</v>
+      </c>
       <c r="R14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B15" s="3">
         <v>32</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E16" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>9</v>
@@ -1061,21 +1086,21 @@
         <v>4</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="10:18" x14ac:dyDescent="0.3">
       <c r="J17" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L17" t="s">
         <v>12</v>
       </c>
       <c r="M17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1086,25 +1111,22 @@
       <c r="P17">
         <v>0</v>
       </c>
-      <c r="Q17" t="s">
-        <v>69</v>
-      </c>
       <c r="R17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="10:18" x14ac:dyDescent="0.3">
       <c r="J18" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L18" t="s">
         <v>12</v>
       </c>
       <c r="M18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1116,21 +1138,21 @@
         <v>0</v>
       </c>
       <c r="R18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="10:18" x14ac:dyDescent="0.3">
       <c r="J19" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L19" t="s">
         <v>12</v>
       </c>
       <c r="M19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1141,25 +1163,22 @@
       <c r="P19">
         <v>0</v>
       </c>
-      <c r="Q19" t="s">
-        <v>70</v>
-      </c>
       <c r="R19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="10:18" x14ac:dyDescent="0.3">
       <c r="J20" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L20" t="s">
         <v>12</v>
       </c>
       <c r="M20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1171,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="10:18" ht="14" customHeight="1" x14ac:dyDescent="0.3">
